--- a/Divisions/Simulations.xlsx
+++ b/Divisions/Simulations.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="199">
   <si>
     <t>Team</t>
   </si>
@@ -136,493 +136,484 @@
     <t>29</t>
   </si>
   <si>
+    <t>FC Cincinnati</t>
+  </si>
+  <si>
     <t>Inter Miami</t>
   </si>
   <si>
-    <t>FC Cincinnati</t>
+    <t>LA Galaxy</t>
+  </si>
+  <si>
+    <t>LAFC</t>
   </si>
   <si>
     <t>RSL</t>
   </si>
   <si>
+    <t>Crew</t>
+  </si>
+  <si>
+    <t>Rapids</t>
+  </si>
+  <si>
+    <t>NY Red Bulls</t>
+  </si>
+  <si>
     <t>NYCFC</t>
   </si>
   <si>
-    <t>LA Galaxy</t>
+    <t>Portland Timbers</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Vancouver Wcaps</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Dynamo FC</t>
+  </si>
+  <si>
+    <t>Austin</t>
   </si>
   <si>
     <t>Minnesota Utd</t>
   </si>
   <si>
-    <t>Crew</t>
-  </si>
-  <si>
-    <t>LAFC</t>
-  </si>
-  <si>
-    <t>Austin</t>
-  </si>
-  <si>
-    <t>NY Red Bulls</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>Rapids</t>
+    <t>Orlando City</t>
   </si>
   <si>
     <t>Toronto FC</t>
   </si>
   <si>
-    <t>Vancouver Wcaps</t>
+    <t>CF Montreal</t>
+  </si>
+  <si>
+    <t>FC Dallas</t>
+  </si>
+  <si>
+    <t>Nashville</t>
+  </si>
+  <si>
+    <t>Atlanta Utd</t>
   </si>
   <si>
     <t>D.C. United</t>
   </si>
   <si>
-    <t>Dynamo FC</t>
+    <t>Sporting KC</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>NE Revolution</t>
+  </si>
+  <si>
+    <t>St. Louis</t>
   </si>
   <si>
     <t>Philadelphia</t>
   </si>
   <si>
-    <t>Seattle</t>
-  </si>
-  <si>
-    <t>Nashville</t>
-  </si>
-  <si>
-    <t>Orlando City</t>
-  </si>
-  <si>
-    <t>Portland Timbers</t>
-  </si>
-  <si>
-    <t>St. Louis</t>
-  </si>
-  <si>
-    <t>Atlanta Utd</t>
-  </si>
-  <si>
-    <t>CF Montreal</t>
-  </si>
-  <si>
-    <t>FC Dallas</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
     <t>SJ Earthquakes</t>
   </si>
   <si>
-    <t>Sporting KC</t>
-  </si>
-  <si>
-    <t>NE Revolution</t>
+    <t>43</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
   <si>
     <t>38</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>31</t>
   </si>
   <si>
-    <t>34</t>
+    <t>39</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-12</t>
+  </si>
+  <si>
+    <t>-14</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>-16</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>-27</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>mls_teams</t>
+  </si>
+  <si>
+    <t>mls_games_played_sim</t>
+  </si>
+  <si>
+    <t>mls_total_wins_sim</t>
+  </si>
+  <si>
+    <t>mls_total_draws_sim</t>
+  </si>
+  <si>
+    <t>mls_total_loss_sim</t>
+  </si>
+  <si>
+    <t>mls_PTS_sim</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>-7</t>
-  </si>
-  <si>
-    <t>-14</t>
-  </si>
-  <si>
-    <t>-13</t>
-  </si>
-  <si>
-    <t>-11</t>
-  </si>
-  <si>
-    <t>-17</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>mls_teams</t>
-  </si>
-  <si>
-    <t>mls_games_played_sim</t>
-  </si>
-  <si>
-    <t>mls_total_wins_sim</t>
-  </si>
-  <si>
-    <t>mls_total_draws_sim</t>
-  </si>
-  <si>
-    <t>mls_total_loss_sim</t>
-  </si>
-  <si>
-    <t>mls_PTS_sim</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>32</t>
+    <t>91</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Team_f</t>
+  </si>
+  <si>
+    <t>P_f</t>
+  </si>
+  <si>
+    <t>W_f</t>
+  </si>
+  <si>
+    <t>D_f</t>
+  </si>
+  <si>
+    <t>L_f</t>
+  </si>
+  <si>
+    <t>PTS_f</t>
   </si>
   <si>
     <t>56</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>45</t>
+    <t>133</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>89</t>
   </si>
   <si>
     <t>84</t>
   </si>
   <si>
-    <t>90</t>
+    <t>80</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>arg_GD</t>
+  </si>
+  <si>
+    <t>arg_PTS</t>
+  </si>
+  <si>
+    <t>arg_rank</t>
+  </si>
+  <si>
+    <t>Huracan</t>
+  </si>
+  <si>
+    <t>Talleres</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>Gimnasia–LP</t>
+  </si>
+  <si>
+    <t>Instituto</t>
+  </si>
+  <si>
+    <t>Racing Club</t>
+  </si>
+  <si>
+    <t>Arg Juniors</t>
+  </si>
+  <si>
+    <t>River Plate</t>
+  </si>
+  <si>
+    <t>Belgrano</t>
+  </si>
+  <si>
+    <t>Lanus</t>
+  </si>
+  <si>
+    <t>Boca Juniors</t>
+  </si>
+  <si>
+    <t>Estudiantes</t>
+  </si>
+  <si>
+    <t>Independiente Rivadavia</t>
+  </si>
+  <si>
+    <t>Sarmiento</t>
+  </si>
+  <si>
+    <t>Atletico Tucuman</t>
+  </si>
+  <si>
+    <t>Deportivo Riestra</t>
+  </si>
+  <si>
+    <t>Independiente</t>
+  </si>
+  <si>
+    <t>Newells OB</t>
+  </si>
+  <si>
+    <t>Rosario Central</t>
+  </si>
+  <si>
+    <t>Platense</t>
+  </si>
+  <si>
+    <t>Velez Sarsfield</t>
+  </si>
+  <si>
+    <t>Banfield</t>
+  </si>
+  <si>
+    <t>Barracas Central</t>
+  </si>
+  <si>
+    <t>Defensa Justicia</t>
+  </si>
+  <si>
+    <t>Godoy Cruz</t>
+  </si>
+  <si>
+    <t>Tigre</t>
+  </si>
+  <si>
+    <t>San Lorenzo</t>
+  </si>
+  <si>
+    <t>Central Cordoba</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-9</t>
+  </si>
+  <si>
+    <t>arg_teams</t>
+  </si>
+  <si>
+    <t>arg_games_played_sim</t>
+  </si>
+  <si>
+    <t>arg_total_wins_sim</t>
+  </si>
+  <si>
+    <t>arg_total_draws_sim</t>
+  </si>
+  <si>
+    <t>arg_total_loss_sim</t>
+  </si>
+  <si>
+    <t>arg_PTS_sim</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>83</t>
   </si>
   <si>
     <t>81</t>
   </si>
   <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>89</t>
+    <t>79</t>
   </si>
   <si>
     <t>53</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>Team_f</t>
-  </si>
-  <si>
-    <t>P_f</t>
-  </si>
-  <si>
-    <t>W_f</t>
-  </si>
-  <si>
-    <t>D_f</t>
-  </si>
-  <si>
-    <t>L_f</t>
-  </si>
-  <si>
-    <t>PTS_f</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>arg_GD</t>
-  </si>
-  <si>
-    <t>arg_PTS</t>
-  </si>
-  <si>
-    <t>arg_rank</t>
-  </si>
-  <si>
-    <t>Racing Club</t>
-  </si>
-  <si>
-    <t>Talleres</t>
-  </si>
-  <si>
-    <t>River Plate</t>
-  </si>
-  <si>
-    <t>Belgrano</t>
-  </si>
-  <si>
-    <t>Estudiantes</t>
-  </si>
-  <si>
-    <t>Gimnasia–LP</t>
-  </si>
-  <si>
-    <t>Huracan</t>
-  </si>
-  <si>
-    <t>Independiente Rivadavia</t>
-  </si>
-  <si>
-    <t>Instituto</t>
-  </si>
-  <si>
-    <t>Union</t>
-  </si>
-  <si>
-    <t>Arg Juniors</t>
-  </si>
-  <si>
-    <t>Newells OB</t>
-  </si>
-  <si>
-    <t>Atletico Tucuman</t>
-  </si>
-  <si>
-    <t>Lanus</t>
-  </si>
-  <si>
-    <t>Platense</t>
-  </si>
-  <si>
-    <t>Rosario Central</t>
-  </si>
-  <si>
-    <t>Velez Sarsfield</t>
-  </si>
-  <si>
-    <t>Barracas Central</t>
-  </si>
-  <si>
-    <t>Boca Juniors</t>
-  </si>
-  <si>
-    <t>Sarmiento</t>
-  </si>
-  <si>
-    <t>Deportivo Riestra</t>
-  </si>
-  <si>
-    <t>Independiente</t>
-  </si>
-  <si>
-    <t>Defensa Justicia</t>
-  </si>
-  <si>
-    <t>Godoy Cruz</t>
-  </si>
-  <si>
-    <t>Banfield</t>
-  </si>
-  <si>
-    <t>San Lorenzo</t>
-  </si>
-  <si>
-    <t>Tigre</t>
-  </si>
-  <si>
-    <t>Central Cordoba</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>arg_teams</t>
-  </si>
-  <si>
-    <t>arg_games_played_sim</t>
-  </si>
-  <si>
-    <t>arg_total_wins_sim</t>
-  </si>
-  <si>
-    <t>arg_total_draws_sim</t>
-  </si>
-  <si>
-    <t>arg_total_loss_sim</t>
-  </si>
-  <si>
-    <t>arg_PTS_sim</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>59</t>
   </si>
 </sst>
 </file>
@@ -714,25 +705,25 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
         <v>71</v>
@@ -749,28 +740,28 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="H3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -784,28 +775,28 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -819,28 +810,28 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -854,28 +845,28 @@
         <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -889,28 +880,28 @@
         <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -924,28 +915,28 @@
         <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -959,28 +950,28 @@
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -994,28 +985,28 @@
         <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -1029,28 +1020,28 @@
         <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -1064,28 +1055,28 @@
         <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -1099,28 +1090,28 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -1134,28 +1125,28 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
         <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -1169,28 +1160,28 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I15" t="s">
         <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -1204,28 +1195,28 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="J16" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -1239,28 +1230,28 @@
         <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -1274,28 +1265,28 @@
         <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -1309,28 +1300,28 @@
         <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="I19" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -1344,28 +1335,28 @@
         <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -1379,28 +1370,28 @@
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K21" t="n">
         <v>20.0</v>
@@ -1414,28 +1405,28 @@
         <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K22" t="n">
         <v>21.0</v>
@@ -1449,28 +1440,28 @@
         <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K23" t="n">
         <v>22.0</v>
@@ -1484,28 +1475,28 @@
         <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="I24" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K24" t="n">
         <v>23.0</v>
@@ -1519,28 +1510,28 @@
         <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I25" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K25" t="n">
         <v>24.0</v>
@@ -1554,28 +1545,28 @@
         <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I26" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K26" t="n">
         <v>25.0</v>
@@ -1589,28 +1580,28 @@
         <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H27" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="I27" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="J27" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="K27" t="n">
         <v>26.0</v>
@@ -1624,28 +1615,28 @@
         <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I28" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J28" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="K28" t="n">
         <v>27.0</v>
@@ -1659,28 +1650,28 @@
         <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="I29" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="J29" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K29" t="n">
         <v>28.0</v>
@@ -1694,28 +1685,28 @@
         <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
         <v>11</v>
       </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="I30" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K30" t="n">
         <v>29.0</v>
@@ -1737,22 +1728,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="G1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
@@ -1760,22 +1751,22 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -1783,22 +1774,22 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
@@ -1806,22 +1797,22 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1832,19 +1823,19 @@
         <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -1852,22 +1843,22 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7">
@@ -1875,22 +1866,22 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1898,22 +1889,22 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
@@ -1921,22 +1912,22 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -1944,22 +1935,22 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -1967,22 +1958,22 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -1990,22 +1981,22 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
@@ -2013,22 +2004,22 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
@@ -2036,22 +2027,22 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
@@ -2059,22 +2050,22 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
@@ -2082,22 +2073,22 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
         <v>20</v>
       </c>
-      <c r="F16" t="s">
-        <v>31</v>
-      </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
@@ -2105,22 +2096,22 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -2128,22 +2119,22 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19">
@@ -2151,22 +2142,22 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
@@ -2174,19 +2165,19 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
         <v>38</v>
@@ -2197,22 +2188,22 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
@@ -2220,22 +2211,22 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
@@ -2243,22 +2234,22 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
         <v>24</v>
       </c>
-      <c r="E23" t="s">
-        <v>26</v>
-      </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24">
@@ -2266,22 +2257,22 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25">
@@ -2289,22 +2280,22 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
@@ -2312,22 +2303,22 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" t="s">
         <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -2335,22 +2326,22 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
@@ -2358,22 +2349,22 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G28" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
@@ -2381,22 +2372,22 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G29" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -2404,22 +2395,22 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2438,229 +2429,229 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
@@ -2668,45 +2659,45 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
@@ -2714,286 +2705,286 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
         <v>21</v>
       </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
       <c r="G16" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
         <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -3005,64 +2996,64 @@
         <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
         <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
@@ -3071,56 +3062,56 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3160,13 +3151,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="J1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="K1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
@@ -3174,31 +3165,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -3209,31 +3200,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -3244,31 +3235,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -3279,13 +3270,13 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -3294,16 +3285,16 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -3314,13 +3305,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -3329,16 +3320,16 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -3349,13 +3340,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -3364,16 +3355,16 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -3384,31 +3375,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>72</v>
-      </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -3419,31 +3410,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>72</v>
-      </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -3454,31 +3445,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -3489,31 +3480,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
-        <v>72</v>
-      </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
         <v>10</v>
       </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -3524,31 +3515,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
       </c>
       <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -3559,31 +3550,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -3594,31 +3585,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I14" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -3629,31 +3620,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" t="s">
+      <c r="I15" t="s">
         <v>10</v>
       </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" t="s">
-        <v>169</v>
-      </c>
       <c r="J15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -3664,31 +3655,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="J16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -3699,31 +3690,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" t="s">
         <v>15</v>
-      </c>
-      <c r="H17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" t="s">
-        <v>14</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -3734,16 +3725,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -3755,10 +3746,10 @@
         <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="J18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -3769,31 +3760,31 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" t="s">
         <v>12</v>
       </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -3804,31 +3795,31 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -3839,16 +3830,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -3857,13 +3848,13 @@
         <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K21" t="n">
         <v>20.0</v>
@@ -3874,31 +3865,31 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K22" t="n">
         <v>21.0</v>
@@ -3909,31 +3900,31 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
         <v>13</v>
       </c>
-      <c r="D23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
       <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" t="s">
         <v>13</v>
-      </c>
-      <c r="I23" t="s">
-        <v>74</v>
-      </c>
-      <c r="J23" t="s">
-        <v>12</v>
       </c>
       <c r="K23" t="n">
         <v>22.0</v>
@@ -3944,31 +3935,31 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>96</v>
+      </c>
+      <c r="J24" t="s">
         <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J24" t="s">
-        <v>11</v>
       </c>
       <c r="K24" t="n">
         <v>23.0</v>
@@ -3979,31 +3970,31 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" t="s">
         <v>12</v>
       </c>
-      <c r="D25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="J25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K25" t="n">
         <v>24.0</v>
@@ -4014,31 +4005,31 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" t="s">
         <v>12</v>
       </c>
-      <c r="D26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>10</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>10</v>
-      </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="J26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K26" t="n">
         <v>25.0</v>
@@ -4049,31 +4040,31 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
         <v>12</v>
       </c>
-      <c r="D27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" t="s">
         <v>11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J27" t="s">
-        <v>10</v>
       </c>
       <c r="K27" t="n">
         <v>26.0</v>
@@ -4084,13 +4075,13 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -4102,10 +4093,10 @@
         <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="J28" t="s">
         <v>10</v>
@@ -4119,31 +4110,31 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I29" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="J29" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="K29" t="n">
         <v>28.0</v>
@@ -4165,22 +4156,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2">
@@ -4188,22 +4179,22 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -4211,22 +4202,22 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
       <c r="G3" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -4234,22 +4225,22 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5">
@@ -4257,22 +4248,22 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>179</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
@@ -4280,22 +4271,22 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -4303,22 +4294,22 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8">
@@ -4326,22 +4317,22 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>180</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -4349,22 +4340,22 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
@@ -4372,22 +4363,22 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -4395,22 +4386,22 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
@@ -4418,22 +4409,22 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13">
@@ -4441,22 +4432,22 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
@@ -4467,19 +4458,19 @@
         <v>147</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15">
@@ -4487,22 +4478,22 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16">
@@ -4510,22 +4501,22 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17">
@@ -4533,22 +4524,22 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18">
@@ -4556,22 +4547,22 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
@@ -4579,22 +4570,22 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C19" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -4602,22 +4593,22 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21">
@@ -4625,22 +4616,22 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
       <c r="G21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
@@ -4648,22 +4639,22 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
         <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
@@ -4671,22 +4662,22 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
@@ -4694,22 +4685,22 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C24" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
@@ -4720,19 +4711,19 @@
         <v>160</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26">
@@ -4740,19 +4731,19 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
         <v>189</v>
@@ -4763,22 +4754,22 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -4786,22 +4777,22 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
         <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29">
@@ -4809,22 +4800,22 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4843,459 +4834,459 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>199</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>27</v>
       </c>
-      <c r="F17" t="s">
-        <v>28</v>
-      </c>
       <c r="G17" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="E20" t="s">
-        <v>92</v>
-      </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>201</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21">
@@ -5303,137 +5294,137 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
         <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
@@ -5441,45 +5432,45 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29">
@@ -5487,10 +5478,10 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
@@ -5499,7 +5490,7 @@
         <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>

--- a/Divisions/Simulations.xlsx
+++ b/Divisions/Simulations.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="202">
   <si>
     <t>Team</t>
   </si>
@@ -136,15 +136,15 @@
     <t>29</t>
   </si>
   <si>
+    <t>Inter Miami</t>
+  </si>
+  <si>
+    <t>LA Galaxy</t>
+  </si>
+  <si>
     <t>FC Cincinnati</t>
   </si>
   <si>
-    <t>Inter Miami</t>
-  </si>
-  <si>
-    <t>LA Galaxy</t>
-  </si>
-  <si>
     <t>LAFC</t>
   </si>
   <si>
@@ -154,466 +154,475 @@
     <t>Crew</t>
   </si>
   <si>
+    <t>NY Red Bulls</t>
+  </si>
+  <si>
     <t>Rapids</t>
   </si>
   <si>
-    <t>NY Red Bulls</t>
-  </si>
-  <si>
     <t>NYCFC</t>
   </si>
   <si>
+    <t>Vancouver Wcaps</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Dynamo FC</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
     <t>Portland Timbers</t>
   </si>
   <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>Vancouver Wcaps</t>
-  </si>
-  <si>
-    <t>Seattle</t>
-  </si>
-  <si>
-    <t>Dynamo FC</t>
+    <t>Orlando City</t>
+  </si>
+  <si>
+    <t>Minnesota Utd</t>
   </si>
   <si>
     <t>Austin</t>
   </si>
   <si>
-    <t>Minnesota Utd</t>
-  </si>
-  <si>
-    <t>Orlando City</t>
+    <t>FC Dallas</t>
   </si>
   <si>
     <t>Toronto FC</t>
   </si>
   <si>
+    <t>Atlanta Utd</t>
+  </si>
+  <si>
     <t>CF Montreal</t>
   </si>
   <si>
-    <t>FC Dallas</t>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>D.C. United</t>
   </si>
   <si>
     <t>Nashville</t>
   </si>
   <si>
-    <t>Atlanta Utd</t>
-  </si>
-  <si>
-    <t>D.C. United</t>
+    <t>Fire</t>
   </si>
   <si>
     <t>Sporting KC</t>
   </si>
   <si>
-    <t>Fire</t>
-  </si>
-  <si>
     <t>NE Revolution</t>
   </si>
   <si>
     <t>St. Louis</t>
   </si>
   <si>
-    <t>Philadelphia</t>
-  </si>
-  <si>
     <t>SJ Earthquakes</t>
   </si>
   <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>43</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>48</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>38</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>37</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>39</t>
+    <t>49</t>
+  </si>
+  <si>
+    <t>52</t>
   </si>
   <si>
     <t>46</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
+    <t>61</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-9</t>
+  </si>
+  <si>
+    <t>-13</t>
+  </si>
+  <si>
+    <t>-15</t>
+  </si>
+  <si>
+    <t>-12</t>
+  </si>
+  <si>
+    <t>-11</t>
+  </si>
+  <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>-14</t>
+  </si>
+  <si>
+    <t>-30</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>mls_teams</t>
+  </si>
+  <si>
+    <t>mls_games_played_sim</t>
+  </si>
+  <si>
+    <t>mls_total_wins_sim</t>
+  </si>
+  <si>
+    <t>mls_total_draws_sim</t>
+  </si>
+  <si>
+    <t>mls_total_loss_sim</t>
+  </si>
+  <si>
+    <t>mls_PTS_sim</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Team_f</t>
+  </si>
+  <si>
+    <t>P_f</t>
+  </si>
+  <si>
+    <t>W_f</t>
+  </si>
+  <si>
+    <t>D_f</t>
+  </si>
+  <si>
+    <t>L_f</t>
+  </si>
+  <si>
+    <t>PTS_f</t>
   </si>
   <si>
     <t>58</t>
   </si>
   <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>arg_GD</t>
+  </si>
+  <si>
+    <t>arg_PTS</t>
+  </si>
+  <si>
+    <t>arg_rank</t>
+  </si>
+  <si>
+    <t>Huracan</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>Racing Club</t>
+  </si>
+  <si>
+    <t>Talleres</t>
+  </si>
+  <si>
+    <t>Velez Sarsfield</t>
+  </si>
+  <si>
+    <t>Atletico Tucuman</t>
+  </si>
+  <si>
+    <t>Belgrano</t>
+  </si>
+  <si>
+    <t>Deportivo Riestra</t>
+  </si>
+  <si>
+    <t>Estudiantes</t>
+  </si>
+  <si>
+    <t>Instituto</t>
+  </si>
+  <si>
+    <t>Lanus</t>
+  </si>
+  <si>
+    <t>Independiente Rivadavia</t>
+  </si>
+  <si>
+    <t>River Plate</t>
+  </si>
+  <si>
+    <t>Arg Juniors</t>
+  </si>
+  <si>
+    <t>Boca Juniors</t>
+  </si>
+  <si>
+    <t>Gimnasia–LP</t>
+  </si>
+  <si>
+    <t>Rosario Central</t>
+  </si>
+  <si>
+    <t>Sarmiento</t>
+  </si>
+  <si>
+    <t>Newells OB</t>
+  </si>
+  <si>
+    <t>Platense</t>
+  </si>
+  <si>
+    <t>Banfield</t>
+  </si>
+  <si>
+    <t>Godoy Cruz</t>
+  </si>
+  <si>
+    <t>Tigre</t>
+  </si>
+  <si>
+    <t>Independiente</t>
+  </si>
+  <si>
+    <t>Barracas Central</t>
+  </si>
+  <si>
+    <t>San Lorenzo</t>
+  </si>
+  <si>
+    <t>Defensa Justicia</t>
+  </si>
+  <si>
+    <t>Central Cordoba</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
     <t>-7</t>
   </si>
   <si>
     <t>-2</t>
   </si>
   <si>
-    <t>-12</t>
-  </si>
-  <si>
-    <t>-14</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>-16</t>
-  </si>
-  <si>
-    <t>-10</t>
-  </si>
-  <si>
-    <t>-20</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>-27</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>mls_teams</t>
-  </si>
-  <si>
-    <t>mls_games_played_sim</t>
-  </si>
-  <si>
-    <t>mls_total_wins_sim</t>
-  </si>
-  <si>
-    <t>mls_total_draws_sim</t>
-  </si>
-  <si>
-    <t>mls_total_loss_sim</t>
-  </si>
-  <si>
-    <t>mls_PTS_sim</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>arg_teams</t>
+  </si>
+  <si>
+    <t>arg_games_played_sim</t>
+  </si>
+  <si>
+    <t>arg_total_wins_sim</t>
+  </si>
+  <si>
+    <t>arg_total_draws_sim</t>
+  </si>
+  <si>
+    <t>arg_total_loss_sim</t>
+  </si>
+  <si>
+    <t>arg_PTS_sim</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>97</t>
   </si>
   <si>
     <t>91</t>
   </si>
   <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>Team_f</t>
-  </si>
-  <si>
-    <t>P_f</t>
-  </si>
-  <si>
-    <t>W_f</t>
-  </si>
-  <si>
-    <t>D_f</t>
-  </si>
-  <si>
-    <t>L_f</t>
-  </si>
-  <si>
-    <t>PTS_f</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
     <t>80</t>
   </si>
   <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>arg_GD</t>
-  </si>
-  <si>
-    <t>arg_PTS</t>
-  </si>
-  <si>
-    <t>arg_rank</t>
-  </si>
-  <si>
-    <t>Huracan</t>
-  </si>
-  <si>
-    <t>Talleres</t>
-  </si>
-  <si>
-    <t>Union</t>
-  </si>
-  <si>
-    <t>Gimnasia–LP</t>
-  </si>
-  <si>
-    <t>Instituto</t>
-  </si>
-  <si>
-    <t>Racing Club</t>
-  </si>
-  <si>
-    <t>Arg Juniors</t>
-  </si>
-  <si>
-    <t>River Plate</t>
-  </si>
-  <si>
-    <t>Belgrano</t>
-  </si>
-  <si>
-    <t>Lanus</t>
-  </si>
-  <si>
-    <t>Boca Juniors</t>
-  </si>
-  <si>
-    <t>Estudiantes</t>
-  </si>
-  <si>
-    <t>Independiente Rivadavia</t>
-  </si>
-  <si>
-    <t>Sarmiento</t>
-  </si>
-  <si>
-    <t>Atletico Tucuman</t>
-  </si>
-  <si>
-    <t>Deportivo Riestra</t>
-  </si>
-  <si>
-    <t>Independiente</t>
-  </si>
-  <si>
-    <t>Newells OB</t>
-  </si>
-  <si>
-    <t>Rosario Central</t>
-  </si>
-  <si>
-    <t>Platense</t>
-  </si>
-  <si>
-    <t>Velez Sarsfield</t>
-  </si>
-  <si>
-    <t>Banfield</t>
-  </si>
-  <si>
-    <t>Barracas Central</t>
-  </si>
-  <si>
-    <t>Defensa Justicia</t>
-  </si>
-  <si>
-    <t>Godoy Cruz</t>
-  </si>
-  <si>
-    <t>Tigre</t>
-  </si>
-  <si>
-    <t>San Lorenzo</t>
-  </si>
-  <si>
-    <t>Central Cordoba</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>-9</t>
-  </si>
-  <si>
-    <t>arg_teams</t>
-  </si>
-  <si>
-    <t>arg_games_played_sim</t>
-  </si>
-  <si>
-    <t>arg_total_wins_sim</t>
-  </si>
-  <si>
-    <t>arg_total_draws_sim</t>
-  </si>
-  <si>
-    <t>arg_total_loss_sim</t>
-  </si>
-  <si>
-    <t>arg_PTS_sim</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>53</t>
+    <t>69</t>
   </si>
 </sst>
 </file>
@@ -705,28 +714,28 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -740,28 +749,28 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
       </c>
       <c r="G3" t="s">
         <v>69</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -775,28 +784,28 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -810,28 +819,28 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -845,28 +854,28 @@
         <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -880,28 +889,28 @@
         <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -915,28 +924,28 @@
         <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -950,28 +959,28 @@
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -985,28 +994,28 @@
         <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -1023,25 +1032,25 @@
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
         <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" t="s">
-        <v>78</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -1055,28 +1064,28 @@
         <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
       </c>
       <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
         <v>36</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -1090,28 +1099,28 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
         <v>77</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -1125,28 +1134,28 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -1160,28 +1169,28 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" t="s">
         <v>17</v>
       </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -1195,28 +1204,28 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="J16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -1230,28 +1239,28 @@
         <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J17" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -1265,28 +1274,28 @@
         <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J18" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -1300,28 +1309,28 @@
         <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J19" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -1335,28 +1344,28 @@
         <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J20" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -1370,28 +1379,28 @@
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K21" t="n">
         <v>20.0</v>
@@ -1405,28 +1414,28 @@
         <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="I22" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K22" t="n">
         <v>21.0</v>
@@ -1440,28 +1449,28 @@
         <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s">
         <v>74</v>
       </c>
       <c r="I23" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="J23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K23" t="n">
         <v>22.0</v>
@@ -1475,10 +1484,10 @@
         <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
         <v>17</v>
@@ -1487,16 +1496,16 @@
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I24" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K24" t="n">
         <v>23.0</v>
@@ -1510,28 +1519,28 @@
         <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K25" t="n">
         <v>24.0</v>
@@ -1545,28 +1554,28 @@
         <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K26" t="n">
         <v>25.0</v>
@@ -1580,28 +1589,28 @@
         <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I27" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K27" t="n">
         <v>26.0</v>
@@ -1618,25 +1627,25 @@
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I28" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="J28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K28" t="n">
         <v>27.0</v>
@@ -1650,28 +1659,28 @@
         <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I29" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K29" t="n">
         <v>28.0</v>
@@ -1685,7 +1694,7 @@
         <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -1694,16 +1703,16 @@
         <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I30" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J30" t="s">
         <v>23</v>
@@ -1728,22 +1737,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
@@ -1751,22 +1760,22 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -1774,10 +1783,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -1786,10 +1795,10 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -1797,22 +1806,22 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -1823,19 +1832,19 @@
         <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -1846,19 +1855,19 @@
         <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
@@ -1869,19 +1878,19 @@
         <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -1889,22 +1898,22 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1912,13 +1921,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
@@ -1927,7 +1936,7 @@
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
@@ -1935,22 +1944,22 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -1961,19 +1970,19 @@
         <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -1981,22 +1990,22 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
@@ -2004,22 +2013,22 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
@@ -2030,19 +2039,19 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
@@ -2053,19 +2062,19 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
@@ -2073,22 +2082,22 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -2096,22 +2105,22 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -2119,22 +2128,22 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19">
@@ -2145,7 +2154,7 @@
         <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
@@ -2154,7 +2163,7 @@
         <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
         <v>71</v>
@@ -2165,22 +2174,22 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
@@ -2188,22 +2197,22 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -2211,22 +2220,22 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
@@ -2234,22 +2243,22 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2269,19 @@
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25">
@@ -2283,19 +2292,19 @@
         <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
@@ -2306,19 +2315,19 @@
         <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
@@ -2326,22 +2335,22 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -2349,22 +2358,22 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -2372,22 +2381,22 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -2395,22 +2404,22 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
         <v>24</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2429,22 +2438,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
         <v>119</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>120</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>121</v>
-      </c>
-      <c r="E1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2">
@@ -2455,19 +2464,19 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3">
@@ -2478,19 +2487,19 @@
         <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4">
@@ -2498,45 +2507,45 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
@@ -2544,151 +2553,151 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
@@ -2697,53 +2706,53 @@
         <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
       <c r="G14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
@@ -2754,88 +2763,88 @@
         <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19">
@@ -2843,33 +2852,33 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
@@ -2878,30 +2887,30 @@
         <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
         <v>142</v>
@@ -2909,25 +2918,25 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
@@ -2935,13 +2944,13 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
         <v>27</v>
@@ -2950,7 +2959,7 @@
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24">
@@ -2958,22 +2967,22 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
@@ -2984,42 +2993,42 @@
         <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
         <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" t="s">
-        <v>34</v>
-      </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27">
@@ -3027,22 +3036,22 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
@@ -3053,19 +3062,19 @@
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29">
@@ -3073,22 +3082,22 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
@@ -3099,19 +3108,19 @@
         <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3168,28 +3177,28 @@
         <v>147</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -3203,28 +3212,28 @@
         <v>148</v>
       </c>
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>106</v>
-      </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -3238,28 +3247,28 @@
         <v>149</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -3273,28 +3282,28 @@
         <v>150</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -3308,28 +3317,28 @@
         <v>151</v>
       </c>
       <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -3343,28 +3352,28 @@
         <v>152</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -3378,28 +3387,28 @@
         <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -3413,28 +3422,28 @@
         <v>154</v>
       </c>
       <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -3448,28 +3457,28 @@
         <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -3483,28 +3492,28 @@
         <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -3518,28 +3527,28 @@
         <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -3553,28 +3562,28 @@
         <v>158</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
       <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>106</v>
-      </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -3588,28 +3597,28 @@
         <v>159</v>
       </c>
       <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" t="s">
-        <v>10</v>
-      </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -3623,28 +3632,28 @@
         <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -3658,28 +3667,28 @@
         <v>161</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
         <v>13</v>
       </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" t="s">
-        <v>175</v>
-      </c>
       <c r="J16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -3693,28 +3702,28 @@
         <v>162</v>
       </c>
       <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
         <v>14</v>
       </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="J17" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -3728,28 +3737,28 @@
         <v>163</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="J18" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -3763,28 +3772,28 @@
         <v>164</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J19" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -3798,28 +3807,28 @@
         <v>165</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="J20" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -3833,28 +3842,28 @@
         <v>166</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J21" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K21" t="n">
         <v>20.0</v>
@@ -3868,28 +3877,28 @@
         <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="J22" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K22" t="n">
         <v>21.0</v>
@@ -3903,28 +3912,28 @@
         <v>168</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="J23" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K23" t="n">
         <v>22.0</v>
@@ -3938,28 +3947,28 @@
         <v>169</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I24" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="J24" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K24" t="n">
         <v>23.0</v>
@@ -3973,28 +3982,28 @@
         <v>170</v>
       </c>
       <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
         <v>14</v>
       </c>
-      <c r="D25" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="J25" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K25" t="n">
         <v>24.0</v>
@@ -4008,28 +4017,28 @@
         <v>171</v>
       </c>
       <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
         <v>13</v>
       </c>
-      <c r="D26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" t="s">
-        <v>12</v>
-      </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J26" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K26" t="n">
         <v>25.0</v>
@@ -4043,28 +4052,28 @@
         <v>172</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="J27" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K27" t="n">
         <v>26.0</v>
@@ -4078,28 +4087,28 @@
         <v>173</v>
       </c>
       <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
         <v>13</v>
       </c>
-      <c r="D28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J28" t="s">
         <v>14</v>
-      </c>
-      <c r="I28" t="s">
-        <v>92</v>
-      </c>
-      <c r="J28" t="s">
-        <v>10</v>
       </c>
       <c r="K28" t="n">
         <v>27.0</v>
@@ -4113,28 +4122,28 @@
         <v>174</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H29" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I29" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="J29" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="K29" t="n">
         <v>28.0</v>
@@ -4156,22 +4165,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2">
@@ -4179,22 +4188,22 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -4202,22 +4211,22 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4">
@@ -4225,22 +4234,22 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
@@ -4248,22 +4257,22 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -4271,22 +4280,22 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -4294,22 +4303,22 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8">
@@ -4320,19 +4329,19 @@
         <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -4340,22 +4349,22 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -4363,22 +4372,22 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
@@ -4386,22 +4395,22 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
@@ -4409,22 +4418,22 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -4432,22 +4441,22 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
@@ -4458,19 +4467,19 @@
         <v>147</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
@@ -4478,22 +4487,22 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -4501,22 +4510,22 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
@@ -4524,22 +4533,22 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
@@ -4547,22 +4556,22 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>186</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19">
@@ -4570,22 +4579,22 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -4596,19 +4605,19 @@
         <v>166</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -4616,22 +4625,22 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22">
@@ -4639,22 +4648,22 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23">
@@ -4662,22 +4671,22 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24">
@@ -4685,22 +4694,22 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
@@ -4708,22 +4717,22 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
@@ -4731,22 +4740,22 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27">
@@ -4754,22 +4763,22 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
@@ -4777,22 +4786,22 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29">
@@ -4800,22 +4809,22 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s">
         <v>22</v>
       </c>
-      <c r="E29" t="s">
-        <v>26</v>
-      </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>125</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4834,22 +4843,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
         <v>119</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>120</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>121</v>
-      </c>
-      <c r="E1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2">
@@ -4860,203 +4869,203 @@
         <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
       <c r="G5" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11">
@@ -5064,171 +5073,171 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -5240,30 +5249,30 @@
         <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
@@ -5271,229 +5280,229 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>198</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
         <v>173</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F27" t="s">
         <v>77</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
